--- a/insurance-drools-xls/src/main/resources/insuranceRules/insuranceCalc.xlsx
+++ b/insurance-drools-xls/src/main/resources/insuranceRules/insuranceCalc.xlsx
@@ -14,7 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>PRIORITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>Rule Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuranceResult.InsuranceEnum.MEDICAL,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuranceResult.InsuranceEnum.MEDICAL,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuranceResult.InsuranceEnum.SAVING,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>RuleSet</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,41 +62,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>java.util.List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java.util.Arrays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Import</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PRIORITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Functions</t>
-  </si>
-  <si>
-    <t>Rule Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>com.neo.drools.model.*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RuleTable insurance</t>
+    <t>Import</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>com.neo.drools.model.fact.*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>import</t>
-  </si>
-  <si>
-    <t>java.util.List</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -69,15 +97,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>java.util.Arrays</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>import</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,5000</t>
+    <t>RuleTable insurance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -85,75 +105,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>家庭收入</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fur:FullRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fur.getFamilyIncomeExpenseInfo().getFamilyIncome() &gt;= $1,fur.getFamilyIncomeExpenseInfo().getFamilyIncome() &lt; $2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fur.getFamilyIncomeExpenseInfo().setFamilyExpense($1);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuranceResult.InsuranceEnum.MEDICAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuranceResult.InsuranceEnum.SAVING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuranceResult.InsuranceEnum.SAVING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fur.getInsuranceResult().setInsurance($1);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuranceResult.InsuranceEnum.MEDICAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuranceResult.InsuranceEnum.MEDICAL,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuranceResult.InsuranceEnum.MEDICAL,2</t>
+  </si>
+  <si>
+    <t>fur.getFamilyIncomeExpenseInfo().getFamilyIncome()&lt;$1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭支出占收入比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三分之一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,11 +128,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>InsuranceResult.InsuranceEnum.SAVING,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fur.setResults(addResult($1,$2));</t>
+    <t>InsuranceResult.InsuranceEnum.MEDICAL,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONDITION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fur.getSelfHealthInfo().getHealth() in ($1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfHealthInfo.Health.YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfHealthInfo.Health.NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfHealthInfo.Health.NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fur.addResults(addResult($1, $2));</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,14 +261,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -291,6 +281,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -599,204 +592,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="31.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="46.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="38.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.25" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="D13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1">
+        <v>80</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>100</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>100</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>40</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <v>6</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>34</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C11:D11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/insurance-drools-xls/src/main/resources/insuranceRules/insuranceCalc.xlsx
+++ b/insurance-drools-xls/src/main/resources/insuranceRules/insuranceCalc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>PRIORITY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,18 +39,6 @@
   </si>
   <si>
     <t>结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuranceResult.InsuranceEnum.MEDICAL,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuranceResult.InsuranceEnum.MEDICAL,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuranceResult.InsuranceEnum.SAVING,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -108,30 +96,6 @@
     <t>fur:FullRequest</t>
   </si>
   <si>
-    <t>fur.getFamilyIncomeExpenseInfo().getFamilyIncome()&lt;$1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭支出占收入比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二分之一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三分之一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuranceResult.InsuranceEnum.SAVING,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuranceResult.InsuranceEnum.MEDICAL,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CONDITION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,6 +121,158 @@
   </si>
   <si>
     <t>fur.addResults(addResult($1, $2));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfWorkInfo.INDUSTRY.OUTDOOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfWorkInfo.INDUSTRY.INDOOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfWorkInfo.INDUSTRY.FREEDOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fur.getSelfWorkInfo().getIndustry() in ($1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内工作不推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuranceResult.InsuranceEnum.ACCIDENT, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuranceResult.InsuranceEnum.SAVING, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuranceResult.InsuranceEnum.SAVING, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuranceResult.InsuranceEnum.MEDICAL, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuranceResult.InsuranceEnum.MEDICAL, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuranceResult.InsuranceEnum.MEDICAL, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收入低于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推荐意外险</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室外工作推荐意外险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuranceResult.InsuranceEnum.ACCIDENT, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fur.getFamilyIncomeExpenseInfo().getFamilyIncome()&gt;=$1,fur.getFamilyIncomeExpenseInfo().getFamilyIncome()&lt;$2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10, 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50, 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, 200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收入低于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同时不健康，医疗险高分推荐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体不健康推荐医疗险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuranceResult.InsuranceEnum.MEDICAL, 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,83 +708,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="17.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="38.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.25" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="4" max="5" width="53.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="46.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -676,106 +792,166 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="C14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="C16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="C17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="F18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
-        <v>10</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1">
-        <v>80</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="1">
-        <v>100</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="1">
-        <v>100</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="1">
-        <v>40</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>28</v>
+      <c r="F22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/insurance-drools-xls/src/main/resources/insuranceRules/insuranceCalc.xlsx
+++ b/insurance-drools-xls/src/main/resources/insuranceRules/insuranceCalc.xlsx
@@ -121,18 +121,6 @@
   </si>
   <si>
     <t>fur.addResults(addResult($1, $2));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelfWorkInfo.INDUSTRY.OUTDOOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelfWorkInfo.INDUSTRY.INDOOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelfWorkInfo.INDUSTRY.FREEDOM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -273,6 +261,18 @@
   </si>
   <si>
     <t>InsuranceResult.InsuranceEnum.MEDICAL, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfWorkInfo.IndustryEnum.INDOOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfWorkInfo.IndustryEnum.OUTDOOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfWorkInfo.IndustryEnum.FREEDOM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,13 +813,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>26</v>
@@ -830,13 +830,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>6</v>
@@ -845,108 +845,108 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="C14" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="C16" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="C17" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E23" s="11" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/insurance-drools-xls/src/main/resources/insuranceRules/insuranceCalc.xlsx
+++ b/insurance-drools-xls/src/main/resources/insuranceRules/insuranceCalc.xlsx
@@ -137,10 +137,6 @@
   </si>
   <si>
     <t>室内工作不推荐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuranceResult.InsuranceEnum.ACCIDENT, 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -273,6 +269,10 @@
   </si>
   <si>
     <t>SelfWorkInfo.IndustryEnum.FREEDOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuranceResult.InsuranceEnum.ACCIDENT, 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +813,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>21</v>
@@ -845,84 +845,84 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="C14" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="C16" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="C17" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -930,23 +930,23 @@
         <v>30</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E23" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
